--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48CE90-11BE-46BD-8795-E7ACCA21A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C4083-C910-49EC-A24C-902C749537B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4954,8 +4954,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L1148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C4083-C910-49EC-A24C-902C749537B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F451C1-F899-49DA-A7EF-11E24A905912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4951,11 +4951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J591"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G1147" sqref="G1:G1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26901,7 +26900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
         <v>885</v>
       </c>
@@ -26937,7 +26936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
         <v>141</v>
       </c>
@@ -26973,7 +26972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
         <v>205</v>
       </c>
@@ -27009,7 +27008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>711376414</v>
       </c>
@@ -27045,7 +27044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
         <v>179</v>
       </c>
@@ -27081,7 +27080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
         <v>138</v>
       </c>
@@ -27117,7 +27116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
         <v>654</v>
       </c>
@@ -27153,7 +27152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
         <v>886</v>
       </c>
@@ -27189,7 +27188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
         <v>173</v>
       </c>
@@ -27225,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
         <v>254</v>
       </c>
@@ -27261,7 +27260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4" t="s">
         <v>904</v>
@@ -27289,7 +27288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
         <v>34</v>
       </c>
@@ -27327,7 +27326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
         <v>159</v>
       </c>
@@ -27365,7 +27364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
         <v>37</v>
       </c>
@@ -27403,7 +27402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
         <v>293</v>
       </c>
@@ -27441,7 +27440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
         <v>40</v>
       </c>
@@ -27479,7 +27478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
         <v>71</v>
       </c>
@@ -27517,7 +27516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
         <v>79</v>
       </c>
@@ -27555,7 +27554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
         <v>64</v>
       </c>
@@ -27593,7 +27592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
         <v>200</v>
       </c>
@@ -27631,7 +27630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
         <v>91</v>
       </c>
@@ -27669,7 +27668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
         <v>94</v>
       </c>
@@ -27705,7 +27704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
         <v>303</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
         <v>241</v>
       </c>
@@ -27781,7 +27780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
         <v>88</v>
       </c>
@@ -27819,7 +27818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
         <v>147</v>
       </c>
@@ -27857,7 +27856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
         <v>887</v>
       </c>
@@ -27895,7 +27894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>711376414</v>
       </c>
@@ -27933,7 +27932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
         <v>888</v>
       </c>
@@ -27971,7 +27970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
         <v>536</v>
       </c>
@@ -28009,7 +28008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>350</v>
       </c>
@@ -28047,7 +28046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
         <v>362</v>
       </c>
@@ -28085,7 +28084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
         <v>366</v>
       </c>
@@ -28123,7 +28122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
         <v>126</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
         <v>703070227</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
         <v>129</v>
       </c>
@@ -28237,7 +28236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
         <v>110</v>
       </c>
@@ -28275,7 +28274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
         <v>132</v>
       </c>
@@ -28313,7 +28312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
         <v>106</v>
       </c>
@@ -28351,7 +28350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
         <v>371</v>
       </c>
@@ -28389,7 +28388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
         <v>46</v>
       </c>
@@ -28427,7 +28426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
         <v>135</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
         <v>43</v>
       </c>
@@ -28503,7 +28502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
         <v>153</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
         <v>404</v>
       </c>
@@ -28579,7 +28578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
         <v>23</v>
       </c>
@@ -28617,7 +28616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
         <v>401</v>
       </c>
@@ -28655,7 +28654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
         <v>150</v>
       </c>
@@ -28693,7 +28692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
         <v>13</v>
       </c>
@@ -28731,7 +28730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
         <v>211</v>
       </c>
@@ -28769,7 +28768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>108920509</v>
       </c>
@@ -28807,7 +28806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
         <v>208</v>
       </c>
@@ -28845,7 +28844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
         <v>718</v>
       </c>
@@ -28883,7 +28882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
         <v>217</v>
       </c>
@@ -28921,7 +28920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
         <v>97</v>
       </c>
@@ -28959,7 +28958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
         <v>214</v>
       </c>
@@ -28997,7 +28996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
         <v>156</v>
       </c>
@@ -29035,7 +29034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
         <v>17</v>
       </c>
@@ -29073,7 +29072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>107250019</v>
       </c>
@@ -29111,7 +29110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
         <v>235</v>
       </c>
@@ -29149,7 +29148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
         <v>223</v>
       </c>
@@ -29187,7 +29186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
         <v>238</v>
       </c>
@@ -29225,7 +29224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
         <v>165</v>
       </c>
@@ -29263,7 +29262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
         <v>429</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
         <v>220</v>
       </c>
@@ -29339,7 +29338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
         <v>266</v>
       </c>
@@ -29377,7 +29376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
         <v>263</v>
       </c>
@@ -29415,7 +29414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
         <v>737</v>
       </c>
@@ -29453,7 +29452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>241</v>
       </c>
@@ -29489,7 +29488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
         <v>718</v>
       </c>
@@ -29527,7 +29526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>169</v>
       </c>
@@ -29563,7 +29562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
         <v>889</v>
       </c>
@@ -29599,7 +29598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
         <v>197</v>
       </c>
@@ -29635,7 +29634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
         <v>205</v>
       </c>
@@ -29671,7 +29670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>254</v>
       </c>
@@ -29709,7 +29708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
         <v>173</v>
       </c>
@@ -29745,7 +29744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>654</v>
       </c>
@@ -29781,7 +29780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>138</v>
       </c>
@@ -29817,7 +29816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>251</v>
       </c>
@@ -29853,7 +29852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>890</v>
       </c>
@@ -29889,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>491</v>
       </c>
@@ -29925,7 +29924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
         <v>612</v>
       </c>
@@ -29963,7 +29962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
         <v>37</v>
       </c>
@@ -30001,7 +30000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
         <v>293</v>
       </c>
@@ -30039,7 +30038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
         <v>272</v>
       </c>
@@ -30077,7 +30076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
         <v>40</v>
       </c>
@@ -30115,7 +30114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="4">
         <v>106690126</v>
       </c>
@@ -30153,7 +30152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
         <v>30</v>
       </c>
@@ -30191,7 +30190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
         <v>182</v>
       </c>
@@ -30229,7 +30228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
         <v>103</v>
       </c>
@@ -30267,7 +30266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
         <v>891</v>
       </c>
@@ -30305,7 +30304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
         <v>71</v>
       </c>
@@ -30343,7 +30342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
         <v>64</v>
       </c>
@@ -30381,7 +30380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
         <v>536</v>
       </c>
@@ -30419,7 +30418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
         <v>67</v>
       </c>
@@ -30457,7 +30456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
         <v>84</v>
       </c>
@@ -30495,7 +30494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
         <v>238</v>
       </c>
@@ -30533,7 +30532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="4">
         <v>711376414</v>
       </c>
@@ -30571,7 +30570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
         <v>113</v>
       </c>
@@ -30609,7 +30608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
         <v>347</v>
       </c>
@@ -30647,7 +30646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
         <v>153</v>
       </c>
@@ -30685,7 +30684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
         <v>46</v>
       </c>
@@ -30723,7 +30722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
         <v>60</v>
       </c>
@@ -30761,7 +30760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
         <v>88</v>
       </c>
@@ -30799,7 +30798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
         <v>362</v>
       </c>
@@ -30837,7 +30836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
         <v>126</v>
       </c>
@@ -30875,7 +30874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
         <v>350</v>
       </c>
@@ -30913,7 +30912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
         <v>107250019</v>
       </c>
@@ -30951,7 +30950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
         <v>110</v>
       </c>
@@ -30989,7 +30988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
         <v>287</v>
       </c>
@@ -31027,7 +31026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
         <v>290</v>
       </c>
@@ -31065,7 +31064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
         <v>23</v>
       </c>
@@ -31103,7 +31102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
         <v>371</v>
       </c>
@@ -31141,7 +31140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
         <v>892</v>
       </c>
@@ -31179,7 +31178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
         <v>129</v>
       </c>
@@ -31217,7 +31216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="4" t="s">
         <v>200</v>
       </c>
@@ -31255,7 +31254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
         <v>43</v>
       </c>
@@ -31293,7 +31292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>703070227</v>
       </c>
@@ -31331,7 +31330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
         <v>156</v>
       </c>
@@ -31369,7 +31368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
         <v>165</v>
       </c>
@@ -31407,7 +31406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
         <v>132</v>
       </c>
@@ -31445,7 +31444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
         <v>147</v>
       </c>
@@ -31483,7 +31482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
         <v>223</v>
       </c>
@@ -31521,7 +31520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
         <v>135</v>
       </c>
@@ -31559,7 +31558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
         <v>106</v>
       </c>
@@ -31597,7 +31596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
         <v>303</v>
       </c>
@@ -31635,7 +31634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
         <v>150</v>
       </c>
@@ -31673,7 +31672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
         <v>404</v>
       </c>
@@ -31711,7 +31710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
         <v>401</v>
       </c>
@@ -31749,7 +31748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
         <v>13</v>
       </c>
@@ -31787,7 +31786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
         <v>94</v>
       </c>
@@ -31823,7 +31822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
         <v>17</v>
       </c>
@@ -31861,7 +31860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
         <v>208</v>
       </c>
@@ -31899,7 +31898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
         <v>220</v>
       </c>
@@ -31937,7 +31936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
         <v>235</v>
       </c>
@@ -31975,7 +31974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
         <v>97</v>
       </c>
@@ -32013,7 +32012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
         <v>214</v>
       </c>
@@ -32051,7 +32050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
         <v>229</v>
       </c>
@@ -32089,7 +32088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
         <v>429</v>
       </c>
@@ -32127,7 +32126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
         <v>266</v>
       </c>
@@ -32165,7 +32164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
         <v>217</v>
       </c>
@@ -32203,7 +32202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
         <v>205</v>
       </c>
@@ -32239,7 +32238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>182</v>
       </c>
@@ -32275,7 +32274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
         <v>138</v>
       </c>
@@ -32311,7 +32310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
         <v>169</v>
       </c>
@@ -32347,7 +32346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
         <v>491</v>
       </c>
@@ -32383,7 +32382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
         <v>889</v>
       </c>
@@ -32419,7 +32418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
         <v>141</v>
       </c>
@@ -32457,7 +32456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
         <v>251</v>
       </c>
@@ -32493,7 +32492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
         <v>890</v>
       </c>
@@ -32529,7 +32528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>179</v>
       </c>
@@ -32565,7 +32564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="4">
         <v>711376414</v>
       </c>
@@ -32601,7 +32600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
         <v>654</v>
       </c>
@@ -32639,7 +32638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
         <v>888</v>
       </c>
@@ -32677,7 +32676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
         <v>173</v>
       </c>
@@ -32713,7 +32712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
         <v>37</v>
       </c>
@@ -32751,7 +32750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
         <v>103</v>
       </c>
@@ -32789,7 +32788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
         <v>34</v>
       </c>
@@ -32827,7 +32826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
         <v>40</v>
       </c>
@@ -32865,7 +32864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
         <v>272</v>
       </c>
@@ -32903,7 +32902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
         <v>290</v>
       </c>
@@ -32941,7 +32940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
         <v>357</v>
       </c>
@@ -32979,7 +32978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
         <v>64</v>
       </c>
@@ -33017,7 +33016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A755" s="4">
         <v>3102634242</v>
       </c>
@@ -33053,7 +33052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
         <v>362</v>
       </c>
@@ -33091,7 +33090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
         <v>71</v>
       </c>
@@ -33129,7 +33128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
         <v>60</v>
       </c>
@@ -33167,7 +33166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
         <v>46</v>
       </c>
@@ -33205,7 +33204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
         <v>126</v>
       </c>
@@ -33243,7 +33242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="4" t="s">
         <v>106</v>
       </c>
@@ -33281,7 +33280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
         <v>17</v>
       </c>
@@ -33319,7 +33318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="4" t="s">
         <v>135</v>
       </c>
@@ -33357,7 +33356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="4">
         <v>108920509</v>
       </c>
@@ -33395,7 +33394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A765" s="4">
         <v>107250019</v>
       </c>
@@ -33433,7 +33432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
         <v>892</v>
       </c>
@@ -33471,7 +33470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
         <v>88</v>
       </c>
@@ -33509,7 +33508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
         <v>366</v>
       </c>
@@ -33547,7 +33546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A769" s="4" t="s">
         <v>123</v>
       </c>
@@ -33585,7 +33584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A770" s="4" t="s">
         <v>150</v>
       </c>
@@ -33623,7 +33622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="4" t="s">
         <v>383</v>
       </c>
@@ -33659,7 +33658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
         <v>113</v>
       </c>
@@ -33697,7 +33696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A773" s="4" t="s">
         <v>568</v>
       </c>
@@ -33735,7 +33734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="4" t="s">
         <v>110</v>
       </c>
@@ -33773,7 +33772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="4" t="s">
         <v>43</v>
       </c>
@@ -33811,7 +33810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A776" s="4" t="s">
         <v>371</v>
       </c>
@@ -33849,7 +33848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A777" s="4" t="s">
         <v>200</v>
       </c>
@@ -33887,7 +33886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
         <v>129</v>
       </c>
@@ -33925,7 +33924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A779" s="4">
         <v>703070227</v>
       </c>
@@ -33963,7 +33962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
         <v>132</v>
       </c>
@@ -34001,7 +34000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A781" s="4" t="s">
         <v>156</v>
       </c>
@@ -34039,7 +34038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A782" s="4" t="s">
         <v>91</v>
       </c>
@@ -34077,7 +34076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A783" s="4" t="s">
         <v>94</v>
       </c>
@@ -34113,7 +34112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A784" s="4" t="s">
         <v>147</v>
       </c>
@@ -34151,7 +34150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="4" t="s">
         <v>165</v>
       </c>
@@ -34189,7 +34188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="4" t="s">
         <v>23</v>
       </c>
@@ -34227,7 +34226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="4" t="s">
         <v>404</v>
       </c>
@@ -34265,7 +34264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" s="4" t="s">
         <v>401</v>
       </c>
@@ -34303,7 +34302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="4" t="s">
         <v>13</v>
       </c>
@@ -34341,7 +34340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="4" t="s">
         <v>223</v>
       </c>
@@ -34379,7 +34378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="4" t="s">
         <v>97</v>
       </c>
@@ -34417,7 +34416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="4" t="s">
         <v>211</v>
       </c>
@@ -34455,7 +34454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="4" t="s">
         <v>214</v>
       </c>
@@ -34493,7 +34492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A794" s="4" t="s">
         <v>208</v>
       </c>
@@ -34531,7 +34530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="4" t="s">
         <v>217</v>
       </c>
@@ -34569,7 +34568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="4" t="s">
         <v>303</v>
       </c>
@@ -34607,7 +34606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="4" t="s">
         <v>220</v>
       </c>
@@ -34645,7 +34644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A798" s="4" t="s">
         <v>229</v>
       </c>
@@ -34683,7 +34682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A799" s="4" t="s">
         <v>235</v>
       </c>
@@ -34721,7 +34720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="4" t="s">
         <v>84</v>
       </c>
@@ -34759,7 +34758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="4" t="s">
         <v>238</v>
       </c>
@@ -34797,7 +34796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="4" t="s">
         <v>241</v>
       </c>
@@ -34835,7 +34834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="4" t="s">
         <v>429</v>
       </c>
@@ -34873,7 +34872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="4" t="s">
         <v>266</v>
       </c>
@@ -34911,7 +34910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A805" s="4" t="s">
         <v>263</v>
       </c>
@@ -34949,7 +34948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A806" s="4" t="s">
         <v>737</v>
       </c>
@@ -34987,7 +34986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A807" s="4" t="s">
         <v>770</v>
       </c>
@@ -35025,7 +35024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A808" s="4" t="s">
         <v>893</v>
       </c>
@@ -35061,7 +35060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A809" s="4" t="s">
         <v>194</v>
       </c>
@@ -35097,7 +35096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" s="4" t="s">
         <v>173</v>
       </c>
@@ -35133,7 +35132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" s="4" t="s">
         <v>654</v>
       </c>
@@ -35169,7 +35168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="4" t="s">
         <v>654</v>
       </c>
@@ -35205,7 +35204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="4" t="s">
         <v>889</v>
       </c>
@@ -35241,7 +35240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="4" t="s">
         <v>894</v>
       </c>
@@ -35277,7 +35276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A815" s="4" t="s">
         <v>326</v>
       </c>
@@ -35313,7 +35312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="4">
         <v>3102634242</v>
       </c>
@@ -35349,7 +35348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A817" s="4" t="s">
         <v>272</v>
       </c>
@@ -35387,7 +35386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="4" t="s">
         <v>40</v>
       </c>
@@ -35425,7 +35424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="4" t="s">
         <v>37</v>
       </c>
@@ -35463,7 +35462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="4" t="s">
         <v>238</v>
       </c>
@@ -35501,7 +35500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="4" t="s">
         <v>241</v>
       </c>
@@ -35539,7 +35538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="4" t="s">
         <v>64</v>
       </c>
@@ -35577,7 +35576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="4" t="s">
         <v>895</v>
       </c>
@@ -35615,7 +35614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="4" t="s">
         <v>357</v>
       </c>
@@ -35653,7 +35652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="4" t="s">
         <v>132</v>
       </c>
@@ -35691,7 +35690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="4" t="s">
         <v>88</v>
       </c>
@@ -35729,7 +35728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="4" t="s">
         <v>362</v>
       </c>
@@ -35767,7 +35766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="4" t="s">
         <v>34</v>
       </c>
@@ -35805,7 +35804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="4" t="s">
         <v>110</v>
       </c>
@@ -35843,7 +35842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="4" t="s">
         <v>106</v>
       </c>
@@ -35881,7 +35880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A831" s="4" t="s">
         <v>153</v>
       </c>
@@ -35919,7 +35918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="4" t="s">
         <v>43</v>
       </c>
@@ -35957,7 +35956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A833" s="4" t="s">
         <v>129</v>
       </c>
@@ -35995,7 +35994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A834" s="4" t="s">
         <v>770</v>
       </c>
@@ -36033,7 +36032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A835" s="4" t="s">
         <v>113</v>
       </c>
@@ -36071,7 +36070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A836" s="4" t="s">
         <v>371</v>
       </c>
@@ -36109,7 +36108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A837" s="4" t="s">
         <v>97</v>
       </c>
@@ -36147,7 +36146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A838" s="4" t="s">
         <v>135</v>
       </c>
@@ -36185,7 +36184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A839" s="4" t="s">
         <v>200</v>
       </c>
@@ -36223,7 +36222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="4" t="s">
         <v>67</v>
       </c>
@@ -36261,7 +36260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="4" t="s">
         <v>615</v>
       </c>
@@ -36299,7 +36298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" s="4" t="s">
         <v>71</v>
       </c>
@@ -36337,7 +36336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="4" t="s">
         <v>147</v>
       </c>
@@ -36375,7 +36374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A844" s="4" t="s">
         <v>347</v>
       </c>
@@ -36413,7 +36412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="4" t="s">
         <v>23</v>
       </c>
@@ -36451,7 +36450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="4" t="s">
         <v>91</v>
       </c>
@@ -36489,7 +36488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="4" t="s">
         <v>150</v>
       </c>
@@ -36527,7 +36526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A848" s="4" t="s">
         <v>13</v>
       </c>
@@ -36565,7 +36564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" s="4" t="s">
         <v>103</v>
       </c>
@@ -36603,7 +36602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="4" t="s">
         <v>303</v>
       </c>
@@ -36641,7 +36640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="4" t="s">
         <v>401</v>
       </c>
@@ -36679,7 +36678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="4" t="s">
         <v>404</v>
       </c>
@@ -36717,7 +36716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="4" t="s">
         <v>214</v>
       </c>
@@ -36755,7 +36754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="4" t="s">
         <v>217</v>
       </c>
@@ -36793,7 +36792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="4" t="s">
         <v>235</v>
       </c>
@@ -36831,7 +36830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="4" t="s">
         <v>220</v>
       </c>
@@ -36869,7 +36868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A857" s="4" t="s">
         <v>229</v>
       </c>
@@ -36907,7 +36906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="4" t="s">
         <v>771</v>
       </c>
@@ -36945,7 +36944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A859" s="4" t="s">
         <v>248</v>
       </c>
@@ -36983,7 +36982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A860" s="4" t="s">
         <v>432</v>
       </c>
@@ -37021,7 +37020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A861" s="4" t="s">
         <v>165</v>
       </c>
@@ -37059,7 +37058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="4" t="s">
         <v>263</v>
       </c>
@@ -37097,7 +37096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A863" s="4" t="s">
         <v>737</v>
       </c>
@@ -37135,7 +37134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A864" s="4" t="s">
         <v>429</v>
       </c>
@@ -37173,7 +37172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A865" s="4" t="s">
         <v>266</v>
       </c>
@@ -37211,7 +37210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="4" t="s">
         <v>106</v>
       </c>
@@ -37249,7 +37248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="8" t="s">
         <v>491</v>
       </c>
@@ -37287,7 +37286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A868" s="8" t="s">
         <v>182</v>
       </c>
@@ -37325,7 +37324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A869" s="8" t="s">
         <v>197</v>
       </c>
@@ -37363,7 +37362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="8" t="s">
         <v>141</v>
       </c>
@@ -37401,7 +37400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A871" s="8" t="s">
         <v>254</v>
       </c>
@@ -37439,7 +37438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A872" s="8" t="s">
         <v>890</v>
       </c>
@@ -37477,7 +37476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="8" t="s">
         <v>251</v>
       </c>
@@ -37515,7 +37514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="8" t="s">
         <v>205</v>
       </c>
@@ -37553,7 +37552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="8" t="s">
         <v>654</v>
       </c>
@@ -37591,7 +37590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A876" s="8" t="s">
         <v>5</v>
       </c>
@@ -37627,7 +37626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A877" s="8" t="s">
         <v>37</v>
       </c>
@@ -37665,7 +37664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A878" s="8" t="s">
         <v>888</v>
       </c>
@@ -37703,7 +37702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="8" t="s">
         <v>896</v>
       </c>
@@ -37741,7 +37740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A880" s="8" t="s">
         <v>272</v>
       </c>
@@ -37779,7 +37778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A881" s="8" t="s">
         <v>40</v>
       </c>
@@ -37817,7 +37816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A882" s="8" t="s">
         <v>34</v>
       </c>
@@ -37855,7 +37854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A883" s="8" t="s">
         <v>159</v>
       </c>
@@ -37893,7 +37892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A884" s="8" t="s">
         <v>64</v>
       </c>
@@ -37931,7 +37930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A885" s="8" t="s">
         <v>71</v>
       </c>
@@ -37969,7 +37968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A886" s="8" t="s">
         <v>887</v>
       </c>
@@ -38007,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A887" s="8" t="s">
         <v>17</v>
       </c>
@@ -38045,7 +38044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="8" t="s">
         <v>88</v>
       </c>
@@ -38083,7 +38082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A889" s="8" t="s">
         <v>132</v>
       </c>
@@ -38121,7 +38120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" s="8" t="s">
         <v>46</v>
       </c>
@@ -38159,7 +38158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" s="8" t="s">
         <v>60</v>
       </c>
@@ -38197,7 +38196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A892" s="9">
         <v>186202405901</v>
       </c>
@@ -38235,7 +38234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A893" s="8" t="s">
         <v>347</v>
       </c>
@@ -38273,7 +38272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A894" s="8" t="s">
         <v>94</v>
       </c>
@@ -38311,7 +38310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" s="8" t="s">
         <v>91</v>
       </c>
@@ -38349,7 +38348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A896" s="8" t="s">
         <v>165</v>
       </c>
@@ -38387,7 +38386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A897" s="8" t="s">
         <v>113</v>
       </c>
@@ -38425,7 +38424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="8" t="s">
         <v>106</v>
       </c>
@@ -38463,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A899" s="8" t="s">
         <v>129</v>
       </c>
@@ -38501,7 +38500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" s="8" t="s">
         <v>110</v>
       </c>
@@ -38539,7 +38538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" s="8" t="s">
         <v>418</v>
       </c>
@@ -38577,7 +38576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="8" t="s">
         <v>97</v>
       </c>
@@ -38615,7 +38614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" s="8" t="s">
         <v>43</v>
       </c>
@@ -38653,7 +38652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A904" s="8" t="s">
         <v>200</v>
       </c>
@@ -38691,7 +38690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A905" s="8" t="s">
         <v>615</v>
       </c>
@@ -38729,7 +38728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A906" s="8" t="s">
         <v>135</v>
       </c>
@@ -38767,7 +38766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A907" s="8" t="s">
         <v>150</v>
       </c>
@@ -38805,7 +38804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A908" s="8" t="s">
         <v>147</v>
       </c>
@@ -38843,7 +38842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A909" s="8" t="s">
         <v>401</v>
       </c>
@@ -38881,7 +38880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A910" s="8" t="s">
         <v>404</v>
       </c>
@@ -38919,7 +38918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A911" s="8" t="s">
         <v>23</v>
       </c>
@@ -38957,7 +38956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="8" t="s">
         <v>211</v>
       </c>
@@ -38995,7 +38994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A913" s="8" t="s">
         <v>13</v>
       </c>
@@ -39033,7 +39032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" s="8" t="s">
         <v>208</v>
       </c>
@@ -39071,7 +39070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A915" s="8" t="s">
         <v>214</v>
       </c>
@@ -39109,7 +39108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A916" s="8" t="s">
         <v>173</v>
       </c>
@@ -39147,7 +39146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A917" s="8" t="s">
         <v>241</v>
       </c>
@@ -39185,7 +39184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A918" s="8" t="s">
         <v>103</v>
       </c>
@@ -39223,7 +39222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A919" s="8" t="s">
         <v>226</v>
       </c>
@@ -39261,7 +39260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A920" s="8" t="s">
         <v>303</v>
       </c>
@@ -39299,7 +39298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" s="8" t="s">
         <v>223</v>
       </c>
@@ -39337,7 +39336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A922" s="8" t="s">
         <v>220</v>
       </c>
@@ -39375,7 +39374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A923" s="8" t="s">
         <v>238</v>
       </c>
@@ -39413,7 +39412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A924" s="8" t="s">
         <v>229</v>
       </c>
@@ -39451,7 +39450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A925" s="8" t="s">
         <v>235</v>
       </c>
@@ -39489,7 +39488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A926" s="8" t="s">
         <v>263</v>
       </c>
@@ -39527,7 +39526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A927" s="8" t="s">
         <v>429</v>
       </c>
@@ -39565,7 +39564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A928" s="8" t="s">
         <v>205</v>
       </c>
@@ -39601,7 +39600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A929" s="8" t="s">
         <v>889</v>
       </c>
@@ -39637,7 +39636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A930" s="8" t="s">
         <v>897</v>
       </c>
@@ -39673,7 +39672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A931" s="8" t="s">
         <v>898</v>
       </c>
@@ -39709,7 +39708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A932" s="8" t="s">
         <v>894</v>
       </c>
@@ -39745,7 +39744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A933" s="8" t="s">
         <v>491</v>
       </c>
@@ -39781,7 +39780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A934" s="8" t="s">
         <v>290</v>
       </c>
@@ -39817,7 +39816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A935" s="8" t="s">
         <v>251</v>
       </c>
@@ -39853,7 +39852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A936" s="8" t="s">
         <v>899</v>
       </c>
@@ -39891,7 +39890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A937" s="8" t="s">
         <v>254</v>
       </c>
@@ -39929,7 +39928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A938" s="8" t="s">
         <v>182</v>
       </c>
@@ -39967,7 +39966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A939" s="8">
         <v>3102634242</v>
       </c>
@@ -40003,7 +40002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A940" s="8" t="s">
         <v>173</v>
       </c>
@@ -40041,7 +40040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A941" s="8" t="s">
         <v>37</v>
       </c>
@@ -40079,7 +40078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A942" s="8" t="s">
         <v>272</v>
       </c>
@@ -40117,7 +40116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A943" s="8" t="s">
         <v>34</v>
       </c>
@@ -40155,7 +40154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A944" s="8" t="s">
         <v>30</v>
       </c>
@@ -40193,7 +40192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A945" s="8" t="s">
         <v>126</v>
       </c>
@@ -40231,7 +40230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A946" s="8">
         <v>3102634242</v>
       </c>
@@ -40267,7 +40266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A947" s="8" t="s">
         <v>71</v>
       </c>
@@ -40305,7 +40304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A948" s="8" t="s">
         <v>357</v>
       </c>
@@ -40343,7 +40342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A949" s="8" t="s">
         <v>64</v>
       </c>
@@ -40381,7 +40380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A950" s="8" t="s">
         <v>383</v>
       </c>
@@ -40419,7 +40418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" s="8" t="s">
         <v>88</v>
       </c>
@@ -40457,7 +40456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A952" s="8" t="s">
         <v>568</v>
       </c>
@@ -40495,7 +40494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A953" s="8" t="s">
         <v>536</v>
       </c>
@@ -40533,7 +40532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A954" s="8" t="s">
         <v>113</v>
       </c>
@@ -40571,7 +40570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A955" s="8" t="s">
         <v>350</v>
       </c>
@@ -40609,7 +40608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A956" s="8" t="s">
         <v>362</v>
       </c>
@@ -40647,7 +40646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A957" s="8" t="s">
         <v>129</v>
       </c>
@@ -40685,7 +40684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A958" s="8" t="s">
         <v>106</v>
       </c>
@@ -40723,7 +40722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A959" s="8" t="s">
         <v>366</v>
       </c>
@@ -40761,7 +40760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A960" s="8" t="s">
         <v>52</v>
       </c>
@@ -40799,7 +40798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A961" s="8" t="s">
         <v>60</v>
       </c>
@@ -40837,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A962" s="8" t="s">
         <v>46</v>
       </c>
@@ -40875,7 +40874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A963" s="8" t="s">
         <v>135</v>
       </c>
@@ -40913,7 +40912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A964" s="8" t="s">
         <v>141</v>
       </c>
@@ -40951,7 +40950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A965" s="8" t="s">
         <v>241</v>
       </c>
@@ -40989,7 +40988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A966" s="8" t="s">
         <v>615</v>
       </c>
@@ -41027,7 +41026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A967" s="8" t="s">
         <v>200</v>
       </c>
@@ -41065,7 +41064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A968" s="8" t="s">
         <v>43</v>
       </c>
@@ -41103,7 +41102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A969" s="8" t="s">
         <v>97</v>
       </c>
@@ -41141,7 +41140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A970" s="8" t="s">
         <v>110</v>
       </c>
@@ -41179,7 +41178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A971" s="8" t="s">
         <v>287</v>
       </c>
@@ -41217,7 +41216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A972" s="8" t="s">
         <v>123</v>
       </c>
@@ -41255,7 +41254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A973" s="8" t="s">
         <v>132</v>
       </c>
@@ -41293,7 +41292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A974" s="8" t="s">
         <v>153</v>
       </c>
@@ -41331,7 +41330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A975" s="8" t="s">
         <v>94</v>
       </c>
@@ -41369,7 +41368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A976" s="8" t="s">
         <v>326</v>
       </c>
@@ -41405,7 +41404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A977" s="8" t="s">
         <v>147</v>
       </c>
@@ -41443,7 +41442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A978" s="8" t="s">
         <v>150</v>
       </c>
@@ -41481,7 +41480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A979" s="8" t="s">
         <v>223</v>
       </c>
@@ -41519,7 +41518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A980" s="8" t="s">
         <v>13</v>
       </c>
@@ -41557,7 +41556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A981" s="8" t="s">
         <v>401</v>
       </c>
@@ -41595,7 +41594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A982" s="8" t="s">
         <v>103</v>
       </c>
@@ -41633,7 +41632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A983" s="8" t="s">
         <v>303</v>
       </c>
@@ -41671,7 +41670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A984" s="8" t="s">
         <v>23</v>
       </c>
@@ -41709,7 +41708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A985" s="8" t="s">
         <v>156</v>
       </c>
@@ -41747,7 +41746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A986" s="8" t="s">
         <v>214</v>
       </c>
@@ -41785,7 +41784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A987" s="8" t="s">
         <v>208</v>
       </c>
@@ -41823,7 +41822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A988" s="8" t="s">
         <v>347</v>
       </c>
@@ -41861,7 +41860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A989" s="8" t="s">
         <v>91</v>
       </c>
@@ -41899,7 +41898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A990" s="8" t="s">
         <v>84</v>
       </c>
@@ -41937,7 +41936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A991" s="8" t="s">
         <v>238</v>
       </c>
@@ -41975,7 +41974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A992" s="8" t="s">
         <v>220</v>
       </c>
@@ -42013,7 +42012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A993" s="8" t="s">
         <v>229</v>
       </c>
@@ -42051,7 +42050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A994" s="8" t="s">
         <v>165</v>
       </c>
@@ -42089,7 +42088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A995" s="8" t="s">
         <v>737</v>
       </c>
@@ -42127,7 +42126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A996" s="8" t="s">
         <v>429</v>
       </c>
@@ -42165,7 +42164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A997" s="8" t="s">
         <v>654</v>
       </c>
@@ -42203,7 +42202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A998" s="8" t="s">
         <v>138</v>
       </c>
@@ -42241,7 +42240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A999" s="8" t="s">
         <v>894</v>
       </c>
@@ -42279,7 +42278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1000" s="8" t="s">
         <v>197</v>
       </c>
@@ -42317,7 +42316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1001" s="8" t="s">
         <v>194</v>
       </c>
@@ -42355,7 +42354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1002" s="8" t="s">
         <v>205</v>
       </c>
@@ -42393,7 +42392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1003" s="8" t="s">
         <v>491</v>
       </c>
@@ -42431,7 +42430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1004" s="8" t="s">
         <v>182</v>
       </c>
@@ -42469,7 +42468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1005" s="8" t="s">
         <v>899</v>
       </c>
@@ -42507,7 +42506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1006" s="8" t="s">
         <v>900</v>
       </c>
@@ -42545,7 +42544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1007" s="8" t="s">
         <v>251</v>
       </c>
@@ -42583,7 +42582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1008" s="8" t="s">
         <v>888</v>
       </c>
@@ -42621,7 +42620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1009" s="8" t="s">
         <v>383</v>
       </c>
@@ -42659,7 +42658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1010" s="8" t="s">
         <v>362</v>
       </c>
@@ -42697,7 +42696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1011" s="8" t="s">
         <v>94</v>
       </c>
@@ -42733,7 +42732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1012" s="8" t="s">
         <v>208</v>
       </c>
@@ -42771,7 +42770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1013" s="8" t="s">
         <v>132</v>
       </c>
@@ -42809,7 +42808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1014" s="8" t="s">
         <v>220</v>
       </c>
@@ -42847,7 +42846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1015" s="8" t="s">
         <v>17</v>
       </c>
@@ -42885,7 +42884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1016" s="8" t="s">
         <v>350</v>
       </c>
@@ -42923,7 +42922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1017" s="8" t="s">
         <v>37</v>
       </c>
@@ -42961,7 +42960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1018" s="8" t="s">
         <v>901</v>
       </c>
@@ -42999,7 +42998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1019" s="8">
         <v>106690126</v>
       </c>
@@ -43037,7 +43036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1020" s="8" t="s">
         <v>896</v>
       </c>
@@ -43075,7 +43074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1021" s="8" t="s">
         <v>272</v>
       </c>
@@ -43113,7 +43112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1022" s="8" t="s">
         <v>357</v>
       </c>
@@ -43151,7 +43150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1023" s="8" t="s">
         <v>79</v>
       </c>
@@ -43189,7 +43188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1024" s="8" t="s">
         <v>123</v>
       </c>
@@ -43227,7 +43226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1025" s="8" t="s">
         <v>126</v>
       </c>
@@ -43265,7 +43264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1026" s="8" t="s">
         <v>173</v>
       </c>
@@ -43303,7 +43302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1027" s="8" t="s">
         <v>60</v>
       </c>
@@ -43341,7 +43340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1028" s="8" t="s">
         <v>347</v>
       </c>
@@ -43379,7 +43378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1029" s="8" t="s">
         <v>371</v>
       </c>
@@ -43417,7 +43416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1030" s="8" t="s">
         <v>46</v>
       </c>
@@ -43455,7 +43454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1031" s="8" t="s">
         <v>106</v>
       </c>
@@ -43493,7 +43492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1032" s="8" t="s">
         <v>71</v>
       </c>
@@ -43531,7 +43530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1033" s="8" t="s">
         <v>401</v>
       </c>
@@ -43569,7 +43568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1034" s="8" t="s">
         <v>150</v>
       </c>
@@ -43607,7 +43606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1035" s="8" t="s">
         <v>23</v>
       </c>
@@ -43645,7 +43644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1036" s="8" t="s">
         <v>290</v>
       </c>
@@ -43683,7 +43682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1037" s="8" t="s">
         <v>366</v>
       </c>
@@ -43721,7 +43720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1038" s="8" t="s">
         <v>113</v>
       </c>
@@ -43759,7 +43758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1039" s="8" t="s">
         <v>135</v>
       </c>
@@ -43797,7 +43796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1040" s="8" t="s">
         <v>43</v>
       </c>
@@ -43835,7 +43834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1041" s="8" t="s">
         <v>248</v>
       </c>
@@ -43873,7 +43872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1042" s="8" t="s">
         <v>110</v>
       </c>
@@ -43911,7 +43910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1043" s="8" t="s">
         <v>129</v>
       </c>
@@ -43949,7 +43948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1044" s="8" t="s">
         <v>200</v>
       </c>
@@ -43987,7 +43986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1045" s="8" t="s">
         <v>97</v>
       </c>
@@ -44025,7 +44024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1046" s="8" t="s">
         <v>91</v>
       </c>
@@ -44063,7 +44062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1047" s="8" t="s">
         <v>156</v>
       </c>
@@ -44101,7 +44100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1048" s="8" t="s">
         <v>226</v>
       </c>
@@ -44139,7 +44138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1049" s="8" t="s">
         <v>165</v>
       </c>
@@ -44177,7 +44176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1050" s="8" t="s">
         <v>88</v>
       </c>
@@ -44215,7 +44214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1051" s="8" t="s">
         <v>153</v>
       </c>
@@ -44253,7 +44252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1052" s="8" t="s">
         <v>13</v>
       </c>
@@ -44291,7 +44290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1053" s="8" t="s">
         <v>223</v>
       </c>
@@ -44329,7 +44328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1054" s="8" t="s">
         <v>103</v>
       </c>
@@ -44367,7 +44366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1055" s="8" t="s">
         <v>303</v>
       </c>
@@ -44405,7 +44404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1056" s="8" t="s">
         <v>214</v>
       </c>
@@ -44443,7 +44442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1057" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1057" s="8" t="s">
         <v>229</v>
       </c>
@@ -44481,7 +44480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1058" s="8" t="s">
         <v>220</v>
       </c>
@@ -44519,7 +44518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1059" s="8" t="s">
         <v>159</v>
       </c>
@@ -44557,7 +44556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1060" s="8" t="s">
         <v>241</v>
       </c>
@@ -44595,7 +44594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1061" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1061" s="8" t="s">
         <v>238</v>
       </c>
@@ -44633,7 +44632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1062" s="8" t="s">
         <v>266</v>
       </c>
@@ -44671,7 +44670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1063" s="8" t="s">
         <v>615</v>
       </c>
@@ -44709,7 +44708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1064" s="8" t="s">
         <v>429</v>
       </c>
@@ -44747,7 +44746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1065" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1065" s="8" t="s">
         <v>132</v>
       </c>
@@ -44785,7 +44784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1066" s="8" t="s">
         <v>654</v>
       </c>
@@ -44823,7 +44822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1067" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1067" s="8" t="s">
         <v>899</v>
       </c>
@@ -44861,7 +44860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1068" s="8" t="s">
         <v>197</v>
       </c>
@@ -44899,7 +44898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1069" s="8" t="s">
         <v>173</v>
       </c>
@@ -44937,7 +44936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1070" s="8" t="s">
         <v>205</v>
       </c>
@@ -44975,7 +44974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1071" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1071" s="8" t="s">
         <v>191</v>
       </c>
@@ -45013,7 +45012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1072" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1072" s="8" t="s">
         <v>141</v>
       </c>
@@ -45051,7 +45050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1073" s="8" t="s">
         <v>182</v>
       </c>
@@ -45089,7 +45088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1074" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1074" s="8" t="s">
         <v>894</v>
       </c>
@@ -45127,7 +45126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1075" s="8" t="s">
         <v>194</v>
       </c>
@@ -45165,7 +45164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1076" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1076" s="8" t="s">
         <v>491</v>
       </c>
@@ -45203,7 +45202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1077" s="8" t="s">
         <v>254</v>
       </c>
@@ -45241,7 +45240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1078" s="8" t="s">
         <v>37</v>
       </c>
@@ -45279,7 +45278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1079" s="8" t="s">
         <v>612</v>
       </c>
@@ -45317,7 +45316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1080" s="8" t="s">
         <v>272</v>
       </c>
@@ -45355,7 +45354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1081" s="8">
         <v>106690126</v>
       </c>
@@ -45393,7 +45392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1082" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1082" s="8" t="s">
         <v>64</v>
       </c>
@@ -45431,7 +45430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1083" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1083" s="8" t="s">
         <v>71</v>
       </c>
@@ -45469,7 +45468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1084" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1084" s="8" t="s">
         <v>103</v>
       </c>
@@ -45507,7 +45506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1085" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1085" s="8" t="s">
         <v>303</v>
       </c>
@@ -45545,7 +45544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1086" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1086" s="8" t="s">
         <v>126</v>
       </c>
@@ -45583,7 +45582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1087" s="8" t="s">
         <v>17</v>
       </c>
@@ -45621,7 +45620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1088" s="8" t="s">
         <v>88</v>
       </c>
@@ -45659,7 +45658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1089" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1089" s="8" t="s">
         <v>79</v>
       </c>
@@ -45697,7 +45696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1090" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1090" s="8" t="s">
         <v>91</v>
       </c>
@@ -45735,7 +45734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1091" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1091" s="8" t="s">
         <v>350</v>
       </c>
@@ -45773,7 +45772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1092" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1092" s="8" t="s">
         <v>84</v>
       </c>
@@ -45811,7 +45810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1093" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1093" s="8" t="s">
         <v>123</v>
       </c>
@@ -45849,7 +45848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1094" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1094" s="8" t="s">
         <v>347</v>
       </c>
@@ -45887,7 +45886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1095" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1095" s="8" t="s">
         <v>60</v>
       </c>
@@ -45925,7 +45924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1096" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1096" s="8" t="s">
         <v>46</v>
       </c>
@@ -45963,7 +45962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1097" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1097" s="9">
         <v>186202405901</v>
       </c>
@@ -46001,7 +46000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1098" s="8" t="s">
         <v>97</v>
       </c>
@@ -46039,7 +46038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1099" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1099" s="8" t="s">
         <v>366</v>
       </c>
@@ -46077,7 +46076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1100" s="8" t="s">
         <v>113</v>
       </c>
@@ -46115,7 +46114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1101" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1101" s="8" t="s">
         <v>200</v>
       </c>
@@ -46153,7 +46152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1102" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1102" s="8" t="s">
         <v>67</v>
       </c>
@@ -46191,7 +46190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1103" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1103" s="8" t="s">
         <v>165</v>
       </c>
@@ -46229,7 +46228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1104" s="8" t="s">
         <v>34</v>
       </c>
@@ -46267,7 +46266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1105" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1105" s="8" t="s">
         <v>159</v>
       </c>
@@ -46305,7 +46304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1106" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1106" s="8" t="s">
         <v>150</v>
       </c>
@@ -46343,7 +46342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1107" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1107" s="8" t="s">
         <v>43</v>
       </c>
@@ -46381,7 +46380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1108" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1108" s="8" t="s">
         <v>132</v>
       </c>
@@ -46419,7 +46418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1109" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1109" s="8" t="s">
         <v>401</v>
       </c>
@@ -46457,7 +46456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1110" s="8" t="s">
         <v>153</v>
       </c>
@@ -46495,7 +46494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1111" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1111" s="8" t="s">
         <v>106</v>
       </c>
@@ -46533,7 +46532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1112" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1112" s="8" t="s">
         <v>287</v>
       </c>
@@ -46571,7 +46570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1113" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1113" s="8" t="s">
         <v>290</v>
       </c>
@@ -46609,7 +46608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1114" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1114" s="8" t="s">
         <v>135</v>
       </c>
@@ -46647,7 +46646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1115" s="8" t="s">
         <v>129</v>
       </c>
@@ -46685,7 +46684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1116" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1116" s="8" t="s">
         <v>241</v>
       </c>
@@ -46723,7 +46722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1117" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1117" s="8" t="s">
         <v>404</v>
       </c>
@@ -46761,7 +46760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1118" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1118" s="8" t="s">
         <v>23</v>
       </c>
@@ -46799,7 +46798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1119" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1119" s="8" t="s">
         <v>235</v>
       </c>
@@ -46837,7 +46836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1120" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1120" s="8" t="s">
         <v>13</v>
       </c>
@@ -46875,7 +46874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1121" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1121" s="8" t="s">
         <v>220</v>
       </c>
@@ -46913,7 +46912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1122" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1122" s="8" t="s">
         <v>214</v>
       </c>
@@ -46951,7 +46950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1123" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1123" s="8" t="s">
         <v>223</v>
       </c>
@@ -46989,7 +46988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1124" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1124" s="8" t="s">
         <v>238</v>
       </c>
@@ -47027,7 +47026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1125" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1125" s="8" t="s">
         <v>229</v>
       </c>
@@ -47065,7 +47064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1126" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1126" s="8" t="s">
         <v>737</v>
       </c>
@@ -47103,7 +47102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1127" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1127" s="8" t="s">
         <v>263</v>
       </c>
@@ -47141,7 +47140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1128" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1128" s="8" t="s">
         <v>266</v>
       </c>
@@ -47179,7 +47178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1129" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1129" s="8" t="s">
         <v>429</v>
       </c>
@@ -47217,7 +47216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1130" s="10">
         <v>987654321</v>
       </c>
@@ -47253,7 +47252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1131" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1131" s="10">
         <v>118100111</v>
       </c>
@@ -47291,7 +47290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1132" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1132" s="10">
         <v>118100111</v>
       </c>
@@ -47329,7 +47328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1133" s="10">
         <v>118100111</v>
       </c>
@@ -47367,7 +47366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1134" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1134" s="10">
         <v>703070227</v>
       </c>
@@ -47405,7 +47404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1135" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1135" s="10">
         <v>703070227</v>
       </c>
@@ -47443,7 +47442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1136" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1136" s="10">
         <v>703070227</v>
       </c>
@@ -47481,7 +47480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1137" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1137" s="10">
         <v>703070227</v>
       </c>
@@ -47519,7 +47518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1138" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1138" s="10">
         <v>703070227</v>
       </c>
@@ -47557,7 +47556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1139" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1139" s="10">
         <v>107250019</v>
       </c>
@@ -47595,7 +47594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1140" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1140" s="10">
         <v>107250019</v>
       </c>
@@ -47633,7 +47632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1141" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1141" s="8" t="s">
         <v>718</v>
       </c>
@@ -47671,7 +47670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1142" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1142" s="10">
         <v>207040286</v>
       </c>
@@ -47709,7 +47708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1143" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1143" s="8">
         <v>108920509</v>
       </c>
@@ -47747,7 +47746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1144" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1144" s="8">
         <v>711376414</v>
       </c>
@@ -47783,7 +47782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1145" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1145" s="8">
         <v>711376414</v>
       </c>
@@ -47819,7 +47818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1146" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1146" s="8">
         <v>711376414</v>
       </c>
@@ -47855,7 +47854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1147" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1147" s="10">
         <v>118100111</v>
       </c>
@@ -47899,13 +47898,7 @@
       <c r="I1148" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1147" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L1147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="147" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F451C1-F899-49DA-A7EF-11E24A905912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C47C91-523C-4565-8D90-D2C3AB4E0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4563,7 +4563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4646,6 +4646,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4951,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1148"/>
+  <dimension ref="A1:L1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G1147" sqref="G1:G1147"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47893,9 +47896,38 @@
       </c>
     </row>
     <row r="1148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1148" s="10"/>
+      <c r="B1148" s="10"/>
       <c r="C1148" s="1"/>
+      <c r="D1148" s="13"/>
+      <c r="E1148" s="14"/>
       <c r="F1148" s="1"/>
+      <c r="G1148" s="19"/>
+      <c r="H1148" s="19"/>
       <c r="I1148" s="18"/>
+      <c r="J1148" s="22"/>
+      <c r="K1148" s="16"/>
+      <c r="L1148" s="19"/>
+    </row>
+    <row r="1149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1149" s="1"/>
+      <c r="F1149" s="1"/>
+      <c r="G1149" s="31">
+        <f>SUM(G2:G1147)</f>
+        <v>1478820</v>
+      </c>
+      <c r="H1149" s="31">
+        <f t="shared" ref="H1149:I1149" si="0">SUM(H2:H1147)</f>
+        <v>158421</v>
+      </c>
+      <c r="I1149" s="31">
+        <f t="shared" si="0"/>
+        <v>1143649</v>
+      </c>
+      <c r="J1149" s="31">
+        <f>SUM(J2:J1147)</f>
+        <v>1834185</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C47C91-523C-4565-8D90-D2C3AB4E0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEC9648-B0A9-4760-BDD4-8EB555CE662B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4956,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A1137" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D1149" sqref="D1149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47912,18 +47912,9 @@
     <row r="1149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1149" s="1"/>
       <c r="F1149" s="1"/>
-      <c r="G1149" s="31">
-        <f>SUM(G2:G1147)</f>
-        <v>1478820</v>
-      </c>
-      <c r="H1149" s="31">
-        <f t="shared" ref="H1149:I1149" si="0">SUM(H2:H1147)</f>
-        <v>158421</v>
-      </c>
-      <c r="I1149" s="31">
-        <f t="shared" si="0"/>
-        <v>1143649</v>
-      </c>
+      <c r="G1149" s="31"/>
+      <c r="H1149" s="31"/>
+      <c r="I1149" s="31"/>
       <c r="J1149" s="31">
         <f>SUM(J2:J1147)</f>
         <v>1834185</v>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEC9648-B0A9-4760-BDD4-8EB555CE662B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F13FB2-1917-489C-97F9-5C21C3D3E365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4956,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1137" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D1149" sqref="D1149"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1918B878-04D7-4264-9628-953430D1A3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77F239-CB09-4A89-BDF1-31947680BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4957,10 +4957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1132" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1150" sqref="J1150"/>
+    <sheetView tabSelected="1" topLeftCell="F1127" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,7 +5020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>244</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>257</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>266</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>272</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>276</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>147</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>84</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>165</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>34</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>132</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>287</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>290</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>293</v>
       </c>
@@ -9517,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>296</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>71</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>100</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>303</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>244</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>248</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>200</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>159</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>235</v>
       </c>
@@ -9997,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>251</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>251</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>318</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>23</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>23</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>17</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>52</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>52</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>52</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>113</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>43</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>287</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>17</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>67</v>
       </c>
@@ -12771,7 +12772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>238</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>266</v>
       </c>
@@ -13187,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>266</v>
       </c>
@@ -13227,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>429</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>432</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>266</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>116</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>443</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>248</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>147</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>147</v>
       </c>
@@ -13757,7 +13758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>129</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>244</v>
       </c>
@@ -13837,7 +13838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>287</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>71</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>432</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>34</v>
       </c>
@@ -13997,7 +13998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>60</v>
       </c>
@@ -14037,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>46</v>
       </c>
@@ -14077,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>91</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>113</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>17</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>200</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>153</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>100</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>116</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>144</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>91</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>91</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>248</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>132</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>84</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>401</v>
       </c>
@@ -14717,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>23</v>
       </c>
@@ -14757,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>223</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>159</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
@@ -14877,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>266</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>481</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>481</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>481</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>318</v>
       </c>
@@ -15077,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>318</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>103</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>491</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>491</v>
       </c>
@@ -15277,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>26</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>496</v>
       </c>
@@ -15357,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>496</v>
       </c>
@@ -15397,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>103</v>
       </c>
@@ -15437,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>347</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>506</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>13</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>116</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>506</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>506</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>43</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>17</v>
       </c>
@@ -16219,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>26</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>26</v>
       </c>
@@ -16425,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>147</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>30</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>506</v>
       </c>
@@ -17467,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>568</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>144</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>79</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>432</v>
       </c>
@@ -18881,7 +18882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>429</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>432</v>
       </c>
@@ -18961,7 +18962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>432</v>
       </c>
@@ -19001,7 +19002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>266</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>506</v>
       </c>
@@ -19291,7 +19292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>37</v>
       </c>
@@ -19331,7 +19332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>612</v>
       </c>
@@ -19371,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>615</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>34</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>110</v>
       </c>
@@ -19491,7 +19492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>106</v>
       </c>
@@ -19531,7 +19532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>290</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>156</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>200</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>60</v>
       </c>
@@ -19691,7 +19692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>123</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>244</v>
       </c>
@@ -19771,7 +19772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>153</v>
       </c>
@@ -19811,7 +19812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>150</v>
       </c>
@@ -19851,7 +19852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>113</v>
       </c>
@@ -19891,7 +19892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>147</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>116</v>
       </c>
@@ -19971,7 +19972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>100</v>
       </c>
@@ -20011,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>103</v>
       </c>
@@ -20051,7 +20052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>220</v>
       </c>
@@ -20091,7 +20092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>13</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>266</v>
       </c>
@@ -20171,7 +20172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>238</v>
       </c>
@@ -20211,7 +20212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>238</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>159</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>159</v>
       </c>
@@ -20331,7 +20332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>241</v>
       </c>
@@ -20371,7 +20372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>132</v>
       </c>
@@ -20411,7 +20412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>506</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>443</v>
       </c>
@@ -21163,7 +21164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>17</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>506</v>
       </c>
@@ -21745,7 +21746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>612</v>
       </c>
@@ -22327,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>506</v>
       </c>
@@ -22743,7 +22744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>106</v>
       </c>
@@ -23287,7 +23288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>241</v>
       </c>
@@ -23621,7 +23622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>235</v>
       </c>
@@ -23955,7 +23956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>296</v>
       </c>
@@ -23995,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>296</v>
       </c>
@@ -24035,7 +24036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>17</v>
       </c>
@@ -24075,7 +24076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>147</v>
       </c>
@@ -24115,7 +24116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>612</v>
       </c>
@@ -24155,7 +24156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>37</v>
       </c>
@@ -24195,7 +24196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>88</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>506</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>34</v>
       </c>
@@ -24315,7 +24316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>129</v>
       </c>
@@ -24355,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>129</v>
       </c>
@@ -24395,7 +24396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>244</v>
       </c>
@@ -24435,7 +24436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>615</v>
       </c>
@@ -24475,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>52</v>
       </c>
@@ -24515,7 +24516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>60</v>
       </c>
@@ -24555,7 +24556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>116</v>
       </c>
@@ -24595,7 +24596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>97</v>
       </c>
@@ -24635,7 +24636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>113</v>
       </c>
@@ -24675,7 +24676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>536</v>
       </c>
@@ -24715,7 +24716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>220</v>
       </c>
@@ -24755,7 +24756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>126</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>132</v>
       </c>
@@ -24835,7 +24836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>404</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>84</v>
       </c>
@@ -24915,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>238</v>
       </c>
@@ -24955,7 +24956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>223</v>
       </c>
@@ -25415,7 +25416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>52</v>
       </c>
@@ -25455,7 +25456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>52</v>
       </c>
@@ -25495,7 +25496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>266</v>
       </c>
@@ -25535,7 +25536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>266</v>
       </c>
@@ -25575,7 +25576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>266</v>
       </c>
@@ -25779,7 +25780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>113</v>
       </c>
@@ -25903,7 +25904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>293</v>
       </c>
@@ -26025,7 +26026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>347</v>
       </c>
@@ -26065,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>347</v>
       </c>
@@ -26105,7 +26106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>347</v>
       </c>
@@ -26187,7 +26188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>52</v>
       </c>
@@ -26227,7 +26228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>52</v>
       </c>
@@ -26351,7 +26352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>103</v>
       </c>
@@ -27817,7 +27818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>229</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>737</v>
       </c>
@@ -28149,7 +28150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>506</v>
       </c>
@@ -28189,7 +28190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>91</v>
       </c>
@@ -28229,7 +28230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>165</v>
       </c>
@@ -28269,7 +28270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>165</v>
       </c>
@@ -28309,7 +28310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>106</v>
       </c>
@@ -28349,7 +28350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>34</v>
       </c>
@@ -28389,7 +28390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>615</v>
       </c>
@@ -28429,7 +28430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>200</v>
       </c>
@@ -28469,7 +28470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>132</v>
       </c>
@@ -28509,7 +28510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>506</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>123</v>
       </c>
@@ -28589,7 +28590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>147</v>
       </c>
@@ -28629,7 +28630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>37</v>
       </c>
@@ -28669,7 +28670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>37</v>
       </c>
@@ -28709,7 +28710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>290</v>
       </c>
@@ -28749,7 +28750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>241</v>
       </c>
@@ -28789,7 +28790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>67</v>
       </c>
@@ -28829,7 +28830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>214</v>
       </c>
@@ -28869,7 +28870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>296</v>
       </c>
@@ -28909,7 +28910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>52</v>
       </c>
@@ -28949,7 +28950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>52</v>
       </c>
@@ -28989,7 +28990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>113</v>
       </c>
@@ -29029,7 +29030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>150</v>
       </c>
@@ -29069,7 +29070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>235</v>
       </c>
@@ -29109,7 +29110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>91</v>
       </c>
@@ -29149,7 +29150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>220</v>
       </c>
@@ -29189,7 +29190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>401</v>
       </c>
@@ -29269,7 +29270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
         <v>885</v>
       </c>
@@ -29309,7 +29310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
         <v>141</v>
       </c>
@@ -29349,7 +29350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
         <v>205</v>
       </c>
@@ -29389,7 +29390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>711376414</v>
       </c>
@@ -29429,7 +29430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
         <v>179</v>
       </c>
@@ -29469,7 +29470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
         <v>138</v>
       </c>
@@ -29509,7 +29510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
         <v>654</v>
       </c>
@@ -29549,7 +29550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
         <v>886</v>
       </c>
@@ -29589,7 +29590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
         <v>173</v>
       </c>
@@ -29629,7 +29630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
         <v>254</v>
       </c>
@@ -32093,7 +32094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>241</v>
       </c>
@@ -32175,7 +32176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>169</v>
       </c>
@@ -32215,7 +32216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
         <v>889</v>
       </c>
@@ -32255,7 +32256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
         <v>197</v>
       </c>
@@ -32295,7 +32296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
         <v>205</v>
       </c>
@@ -32377,7 +32378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
         <v>173</v>
       </c>
@@ -32417,7 +32418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>654</v>
       </c>
@@ -32457,7 +32458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>138</v>
       </c>
@@ -32497,7 +32498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>251</v>
       </c>
@@ -32537,7 +32538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>890</v>
       </c>
@@ -32577,7 +32578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>491</v>
       </c>
@@ -35135,7 +35136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
         <v>205</v>
       </c>
@@ -35175,7 +35176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>182</v>
       </c>
@@ -35215,7 +35216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
         <v>138</v>
       </c>
@@ -35255,7 +35256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
         <v>169</v>
       </c>
@@ -35295,7 +35296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
         <v>491</v>
       </c>
@@ -35335,7 +35336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
         <v>889</v>
       </c>
@@ -35417,7 +35418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
         <v>251</v>
       </c>
@@ -35457,7 +35458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
         <v>890</v>
       </c>
@@ -35497,7 +35498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>179</v>
       </c>
@@ -35537,7 +35538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4">
         <v>711376414</v>
       </c>
@@ -35661,7 +35662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
         <v>173</v>
       </c>
@@ -38257,7 +38258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4" t="s">
         <v>893</v>
       </c>
@@ -38297,7 +38298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4" t="s">
         <v>194</v>
       </c>
@@ -38337,7 +38338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4" t="s">
         <v>173</v>
       </c>
@@ -38377,7 +38378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4" t="s">
         <v>654</v>
       </c>
@@ -38417,7 +38418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4" t="s">
         <v>654</v>
       </c>
@@ -38457,7 +38458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4" t="s">
         <v>889</v>
       </c>
@@ -38497,7 +38498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4" t="s">
         <v>894</v>
       </c>
@@ -41095,7 +41096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="8" t="s">
         <v>5</v>
       </c>
@@ -43277,7 +43278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="8" t="s">
         <v>205</v>
       </c>
@@ -43317,7 +43318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="8" t="s">
         <v>889</v>
       </c>
@@ -43357,7 +43358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="8" t="s">
         <v>897</v>
       </c>
@@ -43397,7 +43398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="8" t="s">
         <v>898</v>
       </c>
@@ -43437,7 +43438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="8" t="s">
         <v>894</v>
       </c>
@@ -43477,7 +43478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="8" t="s">
         <v>491</v>
       </c>
@@ -43517,7 +43518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="8" t="s">
         <v>290</v>
       </c>
@@ -43557,7 +43558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="8" t="s">
         <v>251</v>
       </c>
@@ -52323,7 +52324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="8">
         <v>711376414</v>
       </c>
@@ -52363,7 +52364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="8">
         <v>711376414</v>
       </c>
@@ -52403,7 +52404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="8">
         <v>711376414</v>
       </c>
@@ -52510,7 +52511,13 @@
       <c r="K1149" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M1147" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Almuerzo Ejecutivo Aseavna"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="147" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77F239-CB09-4A89-BDF1-31947680BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BB98F-AB09-4029-AD25-A295952632DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4493,7 +4493,7 @@
     <t>Precio total colaborador</t>
   </si>
   <si>
-    <t>Total Final</t>
+    <t>Ventas Totales</t>
   </si>
 </sst>
 </file>
@@ -4960,8 +4960,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1127" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K1147"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BB98F-AB09-4029-AD25-A295952632DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D756F0-1C47-4F2F-A91D-DB264270655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4961,7 +4961,7 @@
   <dimension ref="A1:M1149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>169</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>173</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>176</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>179</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>182</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>185</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>191</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>194</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>197</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>205</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>208</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>214</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>217</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>223</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>226</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>232</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>235</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>238</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>241</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>244</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>248</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>251</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>254</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>257</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>263</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>266</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>34</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>293</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>40</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>3102634242</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>347</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>350</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>120</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>116</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>46</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>60</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>357</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>64</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>126</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>362</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>88</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>366</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>113</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>103</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>371</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>211</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>110</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>244</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>248</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>129</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>100</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>144</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>383</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>106</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>43</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>290</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>276</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>159</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>150</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>147</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>153</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>17</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>401</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>404</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>223</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>217</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>208</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>214</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>67</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>238</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>84</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>97</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>418</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>232</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>235</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>229</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>220</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>132</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>257</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>266</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>429</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>165</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>503</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>173</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>138</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>176</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>481</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>141</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>182</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>179</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>205</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>116</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>254</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>37</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>40</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>272</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>536</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>64</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>350</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>362</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>159</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>34</v>
       </c>
@@ -16758,7 +16758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>150</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>366</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>156</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>165</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>88</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>235</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>113</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>110</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>106</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>43</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>371</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>347</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>94</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>103</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>17</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>303</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>401</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>147</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>568</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>404</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>23</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>144</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>120</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>79</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>123</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>100</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>116</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>503</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>232</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>257</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>3102634242</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>238</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>241</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>84</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>223</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>244</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>129</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>97</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>211</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>214</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>217</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>220</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>266</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>132</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>429</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>263</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>229</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>5</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>169</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>182</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>254</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>191</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>179</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>116</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>141</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>205</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>654</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>657</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>37</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>612</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>272</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>40</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>34</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>17</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>3102634242</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>64</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>144</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>91</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>103</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>100</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>120</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>232</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>257</v>
       </c>
@@ -21662,7 +21662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>116</v>
       </c>
@@ -21704,7 +21704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>126</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>383</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>94</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>684</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>296</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>688</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>362</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>113</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>366</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>347</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>350</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>110</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>248</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>60</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>43</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>615</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>568</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>303</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>129</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>244</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>123</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>79</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>106</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>290</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>287</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>401</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>147</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>23</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>404</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>150</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>718</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>208</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>13</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>165</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>241</v>
       </c>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>238</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>223</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>226</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>84</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>97</v>
       </c>
@@ -23580,7 +23580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>217</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>235</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>214</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>220</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>266</v>
       </c>
@@ -23830,7 +23830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>737</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>263</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>132</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>141</v>
       </c>
@@ -25038,7 +25038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>169</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>197</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>654</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>179</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>182</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>491</v>
       </c>
@@ -25290,7 +25290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>711376414</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>205</v>
       </c>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>254</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>201092</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>34</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>272</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>40</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>235</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>37</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>293</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" s="6" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>3102634242</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>357</v>
       </c>
@@ -26268,7 +26268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>52</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>64</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>103</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>362</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>106</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>88</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>113</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>91</v>
       </c>
@@ -26644,7 +26644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>303</v>
       </c>
@@ -26686,7 +26686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>153</v>
       </c>
@@ -26728,7 +26728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>123</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>615</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>718</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>371</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>43</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>506</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>770</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>110</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>129</v>
       </c>
@@ -27148,7 +27148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>13</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>347</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>23</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>287</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>135</v>
       </c>
@@ -27358,7 +27358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>156</v>
       </c>
@@ -27400,7 +27400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>165</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>147</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>150</v>
       </c>
@@ -27526,7 +27526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>536</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>220</v>
       </c>
@@ -27610,7 +27610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>97</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>94</v>
       </c>
@@ -27692,7 +27692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>214</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>67</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>229</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>771</v>
       </c>
@@ -27900,7 +27900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>132</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>223</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>266</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>263</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>737</v>
       </c>
@@ -29230,7 +29230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>987654321</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4" t="s">
         <v>904</v>
@@ -29702,7 +29702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
         <v>34</v>
       </c>
@@ -29744,7 +29744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
         <v>159</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
         <v>37</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
         <v>293</v>
       </c>
@@ -29870,7 +29870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
         <v>40</v>
       </c>
@@ -29912,7 +29912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
         <v>71</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
         <v>79</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
         <v>64</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
         <v>91</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
         <v>94</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
         <v>303</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
         <v>241</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
         <v>88</v>
       </c>
@@ -30288,7 +30288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
         <v>147</v>
       </c>
@@ -30330,7 +30330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
         <v>887</v>
       </c>
@@ -30372,7 +30372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>711376414</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
         <v>888</v>
       </c>
@@ -30456,7 +30456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
         <v>536</v>
       </c>
@@ -30498,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>350</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
         <v>362</v>
       </c>
@@ -30582,7 +30582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
         <v>366</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
         <v>126</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
         <v>703070227</v>
       </c>
@@ -30708,7 +30708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
         <v>129</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
         <v>110</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
         <v>132</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
         <v>106</v>
       </c>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
         <v>371</v>
       </c>
@@ -30918,7 +30918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
         <v>46</v>
       </c>
@@ -30960,7 +30960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
         <v>135</v>
       </c>
@@ -31002,7 +31002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
         <v>43</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
         <v>153</v>
       </c>
@@ -31086,7 +31086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
         <v>404</v>
       </c>
@@ -31128,7 +31128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
         <v>23</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
         <v>401</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
         <v>150</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
         <v>13</v>
       </c>
@@ -31296,7 +31296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
         <v>211</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>108920509</v>
       </c>
@@ -31380,7 +31380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
         <v>208</v>
       </c>
@@ -31422,7 +31422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
         <v>718</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
         <v>217</v>
       </c>
@@ -31506,7 +31506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
         <v>97</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
         <v>214</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
         <v>156</v>
       </c>
@@ -31632,7 +31632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
         <v>17</v>
       </c>
@@ -31674,7 +31674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>107250019</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
         <v>235</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
         <v>223</v>
       </c>
@@ -31800,7 +31800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
         <v>238</v>
       </c>
@@ -31842,7 +31842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
         <v>165</v>
       </c>
@@ -31884,7 +31884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
         <v>429</v>
       </c>
@@ -31926,7 +31926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
         <v>220</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
         <v>266</v>
       </c>
@@ -32010,7 +32010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
         <v>263</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
         <v>737</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
         <v>718</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>254</v>
       </c>
@@ -32618,7 +32618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
         <v>612</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
         <v>37</v>
       </c>
@@ -32702,7 +32702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
         <v>293</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
         <v>272</v>
       </c>
@@ -32786,7 +32786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
         <v>40</v>
       </c>
@@ -32828,7 +32828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4">
         <v>106690126</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
         <v>30</v>
       </c>
@@ -32912,7 +32912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
         <v>182</v>
       </c>
@@ -32954,7 +32954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
         <v>103</v>
       </c>
@@ -32996,7 +32996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
         <v>891</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
         <v>71</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
         <v>64</v>
       </c>
@@ -33122,7 +33122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
         <v>536</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
         <v>67</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
         <v>84</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
         <v>238</v>
       </c>
@@ -33290,7 +33290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4">
         <v>711376414</v>
       </c>
@@ -33332,7 +33332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
         <v>113</v>
       </c>
@@ -33374,7 +33374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
         <v>347</v>
       </c>
@@ -33416,7 +33416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
         <v>153</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
         <v>46</v>
       </c>
@@ -33500,7 +33500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
         <v>60</v>
       </c>
@@ -33542,7 +33542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
         <v>88</v>
       </c>
@@ -33584,7 +33584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
         <v>362</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
         <v>126</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
         <v>350</v>
       </c>
@@ -33710,7 +33710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
         <v>107250019</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
         <v>110</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
         <v>287</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
         <v>290</v>
       </c>
@@ -33878,7 +33878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
         <v>23</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
         <v>371</v>
       </c>
@@ -33962,7 +33962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
         <v>892</v>
       </c>
@@ -34004,7 +34004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
         <v>129</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
         <v>43</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>703070227</v>
       </c>
@@ -34172,7 +34172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
         <v>156</v>
       </c>
@@ -34214,7 +34214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
         <v>165</v>
       </c>
@@ -34256,7 +34256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
         <v>132</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
         <v>147</v>
       </c>
@@ -34340,7 +34340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
         <v>223</v>
       </c>
@@ -34382,7 +34382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
         <v>135</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
         <v>106</v>
       </c>
@@ -34466,7 +34466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
         <v>303</v>
       </c>
@@ -34508,7 +34508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
         <v>150</v>
       </c>
@@ -34550,7 +34550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
         <v>404</v>
       </c>
@@ -34592,7 +34592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
         <v>401</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
         <v>13</v>
       </c>
@@ -34676,7 +34676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
         <v>94</v>
       </c>
@@ -34716,7 +34716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
         <v>17</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
         <v>208</v>
       </c>
@@ -34800,7 +34800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
         <v>220</v>
       </c>
@@ -34842,7 +34842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
         <v>235</v>
       </c>
@@ -34884,7 +34884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
         <v>97</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
         <v>214</v>
       </c>
@@ -34968,7 +34968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
         <v>229</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
         <v>429</v>
       </c>
@@ -35052,7 +35052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
         <v>266</v>
       </c>
@@ -35094,7 +35094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
         <v>217</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
         <v>141</v>
       </c>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
         <v>654</v>
       </c>
@@ -35620,7 +35620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
         <v>888</v>
       </c>
@@ -35702,7 +35702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
         <v>37</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
         <v>103</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
         <v>34</v>
       </c>
@@ -35828,7 +35828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
         <v>40</v>
       </c>
@@ -35870,7 +35870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
         <v>272</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
         <v>290</v>
       </c>
@@ -35954,7 +35954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
         <v>357</v>
       </c>
@@ -35996,7 +35996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
         <v>64</v>
       </c>
@@ -36038,7 +36038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4">
         <v>3102634242</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
         <v>362</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
         <v>71</v>
       </c>
@@ -36162,7 +36162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
         <v>60</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
         <v>46</v>
       </c>
@@ -36246,7 +36246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
         <v>126</v>
       </c>
@@ -36288,7 +36288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4" t="s">
         <v>106</v>
       </c>
@@ -36330,7 +36330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
         <v>17</v>
       </c>
@@ -36372,7 +36372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4" t="s">
         <v>135</v>
       </c>
@@ -36414,7 +36414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4">
         <v>108920509</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4">
         <v>107250019</v>
       </c>
@@ -36498,7 +36498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
         <v>892</v>
       </c>
@@ -36540,7 +36540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
         <v>88</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
         <v>366</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4" t="s">
         <v>123</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4" t="s">
         <v>150</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4" t="s">
         <v>383</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
         <v>113</v>
       </c>
@@ -36790,7 +36790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4" t="s">
         <v>568</v>
       </c>
@@ -36832,7 +36832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4" t="s">
         <v>110</v>
       </c>
@@ -36874,7 +36874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4" t="s">
         <v>43</v>
       </c>
@@ -36916,7 +36916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4" t="s">
         <v>371</v>
       </c>
@@ -37000,7 +37000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
         <v>129</v>
       </c>
@@ -37042,7 +37042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4">
         <v>703070227</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
         <v>132</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4" t="s">
         <v>156</v>
       </c>
@@ -37168,7 +37168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4" t="s">
         <v>91</v>
       </c>
@@ -37210,7 +37210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4" t="s">
         <v>94</v>
       </c>
@@ -37250,7 +37250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4" t="s">
         <v>147</v>
       </c>
@@ -37292,7 +37292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4" t="s">
         <v>165</v>
       </c>
@@ -37334,7 +37334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4" t="s">
         <v>23</v>
       </c>
@@ -37376,7 +37376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4" t="s">
         <v>404</v>
       </c>
@@ -37418,7 +37418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4" t="s">
         <v>401</v>
       </c>
@@ -37460,7 +37460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4" t="s">
         <v>13</v>
       </c>
@@ -37502,7 +37502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4" t="s">
         <v>223</v>
       </c>
@@ -37544,7 +37544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4" t="s">
         <v>97</v>
       </c>
@@ -37586,7 +37586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4" t="s">
         <v>211</v>
       </c>
@@ -37628,7 +37628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4" t="s">
         <v>214</v>
       </c>
@@ -37670,7 +37670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4" t="s">
         <v>208</v>
       </c>
@@ -37712,7 +37712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4" t="s">
         <v>217</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4" t="s">
         <v>303</v>
       </c>
@@ -37796,7 +37796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4" t="s">
         <v>220</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4" t="s">
         <v>229</v>
       </c>
@@ -37880,7 +37880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4" t="s">
         <v>235</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4" t="s">
         <v>84</v>
       </c>
@@ -37964,7 +37964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4" t="s">
         <v>238</v>
       </c>
@@ -38006,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4" t="s">
         <v>241</v>
       </c>
@@ -38048,7 +38048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4" t="s">
         <v>429</v>
       </c>
@@ -38090,7 +38090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4" t="s">
         <v>266</v>
       </c>
@@ -38132,7 +38132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4" t="s">
         <v>263</v>
       </c>
@@ -38174,7 +38174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4" t="s">
         <v>737</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4" t="s">
         <v>770</v>
       </c>
@@ -38538,7 +38538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4" t="s">
         <v>326</v>
       </c>
@@ -38578,7 +38578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4">
         <v>3102634242</v>
       </c>
@@ -38618,7 +38618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4" t="s">
         <v>272</v>
       </c>
@@ -38660,7 +38660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4" t="s">
         <v>40</v>
       </c>
@@ -38702,7 +38702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4" t="s">
         <v>37</v>
       </c>
@@ -38744,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4" t="s">
         <v>238</v>
       </c>
@@ -38786,7 +38786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4" t="s">
         <v>241</v>
       </c>
@@ -38828,7 +38828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4" t="s">
         <v>64</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4" t="s">
         <v>895</v>
       </c>
@@ -38912,7 +38912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4" t="s">
         <v>357</v>
       </c>
@@ -38954,7 +38954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4" t="s">
         <v>132</v>
       </c>
@@ -38996,7 +38996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4" t="s">
         <v>88</v>
       </c>
@@ -39038,7 +39038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4" t="s">
         <v>362</v>
       </c>
@@ -39080,7 +39080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4" t="s">
         <v>34</v>
       </c>
@@ -39122,7 +39122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4" t="s">
         <v>110</v>
       </c>
@@ -39164,7 +39164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4" t="s">
         <v>106</v>
       </c>
@@ -39206,7 +39206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4" t="s">
         <v>153</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4" t="s">
         <v>43</v>
       </c>
@@ -39290,7 +39290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4" t="s">
         <v>129</v>
       </c>
@@ -39332,7 +39332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4" t="s">
         <v>770</v>
       </c>
@@ -39374,7 +39374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4" t="s">
         <v>113</v>
       </c>
@@ -39416,7 +39416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4" t="s">
         <v>371</v>
       </c>
@@ -39458,7 +39458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4" t="s">
         <v>97</v>
       </c>
@@ -39500,7 +39500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4" t="s">
         <v>135</v>
       </c>
@@ -39584,7 +39584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4" t="s">
         <v>67</v>
       </c>
@@ -39626,7 +39626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4" t="s">
         <v>615</v>
       </c>
@@ -39668,7 +39668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4" t="s">
         <v>71</v>
       </c>
@@ -39710,7 +39710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4" t="s">
         <v>147</v>
       </c>
@@ -39752,7 +39752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4" t="s">
         <v>347</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4" t="s">
         <v>23</v>
       </c>
@@ -39836,7 +39836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4" t="s">
         <v>91</v>
       </c>
@@ -39878,7 +39878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4" t="s">
         <v>150</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4" t="s">
         <v>13</v>
       </c>
@@ -39962,7 +39962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4" t="s">
         <v>103</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4" t="s">
         <v>303</v>
       </c>
@@ -40046,7 +40046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4" t="s">
         <v>401</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4" t="s">
         <v>404</v>
       </c>
@@ -40130,7 +40130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4" t="s">
         <v>214</v>
       </c>
@@ -40172,7 +40172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4" t="s">
         <v>217</v>
       </c>
@@ -40214,7 +40214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4" t="s">
         <v>235</v>
       </c>
@@ -40256,7 +40256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4" t="s">
         <v>220</v>
       </c>
@@ -40298,7 +40298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4" t="s">
         <v>229</v>
       </c>
@@ -40340,7 +40340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4" t="s">
         <v>771</v>
       </c>
@@ -40382,7 +40382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4" t="s">
         <v>248</v>
       </c>
@@ -40424,7 +40424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4" t="s">
         <v>432</v>
       </c>
@@ -40466,7 +40466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4" t="s">
         <v>165</v>
       </c>
@@ -40508,7 +40508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4" t="s">
         <v>263</v>
       </c>
@@ -40550,7 +40550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4" t="s">
         <v>737</v>
       </c>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4" t="s">
         <v>429</v>
       </c>
@@ -40634,7 +40634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4" t="s">
         <v>266</v>
       </c>
@@ -40676,7 +40676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4" t="s">
         <v>106</v>
       </c>
@@ -40718,7 +40718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="8" t="s">
         <v>491</v>
       </c>
@@ -40760,7 +40760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="8" t="s">
         <v>182</v>
       </c>
@@ -40802,7 +40802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="8" t="s">
         <v>197</v>
       </c>
@@ -40844,7 +40844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="8" t="s">
         <v>141</v>
       </c>
@@ -40886,7 +40886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="8" t="s">
         <v>254</v>
       </c>
@@ -40928,7 +40928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="8" t="s">
         <v>890</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="8" t="s">
         <v>251</v>
       </c>
@@ -41012,7 +41012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="8" t="s">
         <v>205</v>
       </c>
@@ -41054,7 +41054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="8" t="s">
         <v>654</v>
       </c>
@@ -41136,7 +41136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="8" t="s">
         <v>37</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="8" t="s">
         <v>888</v>
       </c>
@@ -41220,7 +41220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="8" t="s">
         <v>896</v>
       </c>
@@ -41262,7 +41262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="8" t="s">
         <v>272</v>
       </c>
@@ -41304,7 +41304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="8" t="s">
         <v>40</v>
       </c>
@@ -41346,7 +41346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="8" t="s">
         <v>34</v>
       </c>
@@ -41388,7 +41388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="8" t="s">
         <v>159</v>
       </c>
@@ -41430,7 +41430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="8" t="s">
         <v>64</v>
       </c>
@@ -41472,7 +41472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="8" t="s">
         <v>71</v>
       </c>
@@ -41514,7 +41514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="8" t="s">
         <v>887</v>
       </c>
@@ -41556,7 +41556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="8" t="s">
         <v>17</v>
       </c>
@@ -41598,7 +41598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="8" t="s">
         <v>88</v>
       </c>
@@ -41640,7 +41640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="8" t="s">
         <v>132</v>
       </c>
@@ -41682,7 +41682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="8" t="s">
         <v>46</v>
       </c>
@@ -41724,7 +41724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="8" t="s">
         <v>60</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="9">
         <v>186202405901</v>
       </c>
@@ -41808,7 +41808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="8" t="s">
         <v>347</v>
       </c>
@@ -41850,7 +41850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="8" t="s">
         <v>94</v>
       </c>
@@ -41892,7 +41892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="8" t="s">
         <v>91</v>
       </c>
@@ -41934,7 +41934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="8" t="s">
         <v>165</v>
       </c>
@@ -41976,7 +41976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="8" t="s">
         <v>113</v>
       </c>
@@ -42018,7 +42018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="8" t="s">
         <v>106</v>
       </c>
@@ -42060,7 +42060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="8" t="s">
         <v>129</v>
       </c>
@@ -42102,7 +42102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="8" t="s">
         <v>110</v>
       </c>
@@ -42144,7 +42144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="8" t="s">
         <v>418</v>
       </c>
@@ -42186,7 +42186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="8" t="s">
         <v>97</v>
       </c>
@@ -42228,7 +42228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="8" t="s">
         <v>43</v>
       </c>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="8" t="s">
         <v>615</v>
       </c>
@@ -42354,7 +42354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="8" t="s">
         <v>135</v>
       </c>
@@ -42396,7 +42396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="8" t="s">
         <v>150</v>
       </c>
@@ -42438,7 +42438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="8" t="s">
         <v>147</v>
       </c>
@@ -42480,7 +42480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="8" t="s">
         <v>401</v>
       </c>
@@ -42522,7 +42522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="8" t="s">
         <v>404</v>
       </c>
@@ -42564,7 +42564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="8" t="s">
         <v>23</v>
       </c>
@@ -42606,7 +42606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="8" t="s">
         <v>211</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="8" t="s">
         <v>13</v>
       </c>
@@ -42690,7 +42690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="8" t="s">
         <v>208</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="8" t="s">
         <v>214</v>
       </c>
@@ -42774,7 +42774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="8" t="s">
         <v>173</v>
       </c>
@@ -42816,7 +42816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="8" t="s">
         <v>241</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="8" t="s">
         <v>103</v>
       </c>
@@ -42900,7 +42900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="8" t="s">
         <v>226</v>
       </c>
@@ -42942,7 +42942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="8" t="s">
         <v>303</v>
       </c>
@@ -42984,7 +42984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="8" t="s">
         <v>223</v>
       </c>
@@ -43026,7 +43026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="8" t="s">
         <v>220</v>
       </c>
@@ -43068,7 +43068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="8" t="s">
         <v>238</v>
       </c>
@@ -43110,7 +43110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="8" t="s">
         <v>229</v>
       </c>
@@ -43152,7 +43152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="8" t="s">
         <v>235</v>
       </c>
@@ -43194,7 +43194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="8" t="s">
         <v>263</v>
       </c>
@@ -43236,7 +43236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="8" t="s">
         <v>429</v>
       </c>
@@ -43598,7 +43598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="8" t="s">
         <v>899</v>
       </c>
@@ -43640,7 +43640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="8" t="s">
         <v>254</v>
       </c>
@@ -43682,7 +43682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="8" t="s">
         <v>182</v>
       </c>
@@ -43724,7 +43724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="8">
         <v>3102634242</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="8" t="s">
         <v>173</v>
       </c>
@@ -43806,7 +43806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="8" t="s">
         <v>37</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="8" t="s">
         <v>272</v>
       </c>
@@ -43890,7 +43890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="8" t="s">
         <v>34</v>
       </c>
@@ -43932,7 +43932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="8" t="s">
         <v>30</v>
       </c>
@@ -43974,7 +43974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="8" t="s">
         <v>126</v>
       </c>
@@ -44016,7 +44016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="8">
         <v>3102634242</v>
       </c>
@@ -44056,7 +44056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="8" t="s">
         <v>71</v>
       </c>
@@ -44098,7 +44098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="8" t="s">
         <v>357</v>
       </c>
@@ -44140,7 +44140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="8" t="s">
         <v>64</v>
       </c>
@@ -44182,7 +44182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="8" t="s">
         <v>383</v>
       </c>
@@ -44224,7 +44224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="8" t="s">
         <v>88</v>
       </c>
@@ -44266,7 +44266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="8" t="s">
         <v>568</v>
       </c>
@@ -44308,7 +44308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="8" t="s">
         <v>536</v>
       </c>
@@ -44350,7 +44350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="8" t="s">
         <v>113</v>
       </c>
@@ -44392,7 +44392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="8" t="s">
         <v>350</v>
       </c>
@@ -44434,7 +44434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="8" t="s">
         <v>362</v>
       </c>
@@ -44476,7 +44476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="8" t="s">
         <v>129</v>
       </c>
@@ -44518,7 +44518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="8" t="s">
         <v>106</v>
       </c>
@@ -44560,7 +44560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="8" t="s">
         <v>366</v>
       </c>
@@ -44602,7 +44602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="8" t="s">
         <v>52</v>
       </c>
@@ -44644,7 +44644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="8" t="s">
         <v>60</v>
       </c>
@@ -44686,7 +44686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="8" t="s">
         <v>46</v>
       </c>
@@ -44728,7 +44728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="8" t="s">
         <v>135</v>
       </c>
@@ -44770,7 +44770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="8" t="s">
         <v>141</v>
       </c>
@@ -44812,7 +44812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="8" t="s">
         <v>241</v>
       </c>
@@ -44854,7 +44854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="8" t="s">
         <v>615</v>
       </c>
@@ -44938,7 +44938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="8" t="s">
         <v>43</v>
       </c>
@@ -44980,7 +44980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="8" t="s">
         <v>97</v>
       </c>
@@ -45022,7 +45022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="8" t="s">
         <v>110</v>
       </c>
@@ -45064,7 +45064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="8" t="s">
         <v>287</v>
       </c>
@@ -45106,7 +45106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="8" t="s">
         <v>123</v>
       </c>
@@ -45148,7 +45148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="8" t="s">
         <v>132</v>
       </c>
@@ -45190,7 +45190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="8" t="s">
         <v>153</v>
       </c>
@@ -45232,7 +45232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="8" t="s">
         <v>94</v>
       </c>
@@ -45274,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="8" t="s">
         <v>326</v>
       </c>
@@ -45314,7 +45314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="8" t="s">
         <v>147</v>
       </c>
@@ -45356,7 +45356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="8" t="s">
         <v>150</v>
       </c>
@@ -45398,7 +45398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="8" t="s">
         <v>223</v>
       </c>
@@ -45440,7 +45440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="8" t="s">
         <v>13</v>
       </c>
@@ -45482,7 +45482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="8" t="s">
         <v>401</v>
       </c>
@@ -45524,7 +45524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="8" t="s">
         <v>103</v>
       </c>
@@ -45566,7 +45566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="8" t="s">
         <v>303</v>
       </c>
@@ -45608,7 +45608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="8" t="s">
         <v>23</v>
       </c>
@@ -45650,7 +45650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="8" t="s">
         <v>156</v>
       </c>
@@ -45692,7 +45692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="8" t="s">
         <v>214</v>
       </c>
@@ -45734,7 +45734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="8" t="s">
         <v>208</v>
       </c>
@@ -45776,7 +45776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="8" t="s">
         <v>347</v>
       </c>
@@ -45818,7 +45818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="8" t="s">
         <v>91</v>
       </c>
@@ -45860,7 +45860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="8" t="s">
         <v>84</v>
       </c>
@@ -45902,7 +45902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="8" t="s">
         <v>238</v>
       </c>
@@ -45944,7 +45944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="8" t="s">
         <v>220</v>
       </c>
@@ -45986,7 +45986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="8" t="s">
         <v>229</v>
       </c>
@@ -46028,7 +46028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="8" t="s">
         <v>165</v>
       </c>
@@ -46070,7 +46070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="8" t="s">
         <v>737</v>
       </c>
@@ -46112,7 +46112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="8" t="s">
         <v>429</v>
       </c>
@@ -46154,7 +46154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="8" t="s">
         <v>654</v>
       </c>
@@ -46196,7 +46196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="8" t="s">
         <v>138</v>
       </c>
@@ -46238,7 +46238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="8" t="s">
         <v>894</v>
       </c>
@@ -46280,7 +46280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="8" t="s">
         <v>197</v>
       </c>
@@ -46322,7 +46322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="8" t="s">
         <v>194</v>
       </c>
@@ -46364,7 +46364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="8" t="s">
         <v>205</v>
       </c>
@@ -46406,7 +46406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="8" t="s">
         <v>491</v>
       </c>
@@ -46448,7 +46448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="8" t="s">
         <v>182</v>
       </c>
@@ -46490,7 +46490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="8" t="s">
         <v>899</v>
       </c>
@@ -46532,7 +46532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="8" t="s">
         <v>900</v>
       </c>
@@ -46574,7 +46574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="8" t="s">
         <v>251</v>
       </c>
@@ -46616,7 +46616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="8" t="s">
         <v>888</v>
       </c>
@@ -46658,7 +46658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="8" t="s">
         <v>383</v>
       </c>
@@ -46700,7 +46700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="8" t="s">
         <v>362</v>
       </c>
@@ -46742,7 +46742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="8" t="s">
         <v>94</v>
       </c>
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="8" t="s">
         <v>208</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="8" t="s">
         <v>132</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="8" t="s">
         <v>220</v>
       </c>
@@ -46908,7 +46908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="8" t="s">
         <v>17</v>
       </c>
@@ -46950,7 +46950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="8" t="s">
         <v>350</v>
       </c>
@@ -46992,7 +46992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="8" t="s">
         <v>37</v>
       </c>
@@ -47034,7 +47034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="8" t="s">
         <v>901</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="8">
         <v>106690126</v>
       </c>
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="8" t="s">
         <v>896</v>
       </c>
@@ -47160,7 +47160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="8" t="s">
         <v>272</v>
       </c>
@@ -47202,7 +47202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="8" t="s">
         <v>357</v>
       </c>
@@ -47244,7 +47244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="8" t="s">
         <v>79</v>
       </c>
@@ -47286,7 +47286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="8" t="s">
         <v>123</v>
       </c>
@@ -47328,7 +47328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="8" t="s">
         <v>126</v>
       </c>
@@ -47370,7 +47370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="8" t="s">
         <v>173</v>
       </c>
@@ -47412,7 +47412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="8" t="s">
         <v>60</v>
       </c>
@@ -47454,7 +47454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="8" t="s">
         <v>347</v>
       </c>
@@ -47496,7 +47496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="8" t="s">
         <v>371</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="8" t="s">
         <v>46</v>
       </c>
@@ -47580,7 +47580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="8" t="s">
         <v>106</v>
       </c>
@@ -47622,7 +47622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="8" t="s">
         <v>71</v>
       </c>
@@ -47664,7 +47664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="8" t="s">
         <v>401</v>
       </c>
@@ -47706,7 +47706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="8" t="s">
         <v>150</v>
       </c>
@@ -47748,7 +47748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="8" t="s">
         <v>23</v>
       </c>
@@ -47790,7 +47790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="8" t="s">
         <v>290</v>
       </c>
@@ -47832,7 +47832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="8" t="s">
         <v>366</v>
       </c>
@@ -47874,7 +47874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="8" t="s">
         <v>113</v>
       </c>
@@ -47916,7 +47916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="8" t="s">
         <v>135</v>
       </c>
@@ -47958,7 +47958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="8" t="s">
         <v>43</v>
       </c>
@@ -48000,7 +48000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="8" t="s">
         <v>248</v>
       </c>
@@ -48042,7 +48042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" s="8" t="s">
         <v>110</v>
       </c>
@@ -48084,7 +48084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" s="8" t="s">
         <v>129</v>
       </c>
@@ -48168,7 +48168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="8" t="s">
         <v>97</v>
       </c>
@@ -48210,7 +48210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="8" t="s">
         <v>91</v>
       </c>
@@ -48252,7 +48252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="8" t="s">
         <v>156</v>
       </c>
@@ -48294,7 +48294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="8" t="s">
         <v>226</v>
       </c>
@@ -48336,7 +48336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="8" t="s">
         <v>165</v>
       </c>
@@ -48378,7 +48378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="8" t="s">
         <v>88</v>
       </c>
@@ -48420,7 +48420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="8" t="s">
         <v>153</v>
       </c>
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" s="8" t="s">
         <v>13</v>
       </c>
@@ -48504,7 +48504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" s="8" t="s">
         <v>223</v>
       </c>
@@ -48546,7 +48546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" s="8" t="s">
         <v>103</v>
       </c>
@@ -48588,7 +48588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" s="8" t="s">
         <v>303</v>
       </c>
@@ -48630,7 +48630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="8" t="s">
         <v>214</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1057" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="8" t="s">
         <v>229</v>
       </c>
@@ -48714,7 +48714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" s="8" t="s">
         <v>220</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="8" t="s">
         <v>159</v>
       </c>
@@ -48798,7 +48798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="8" t="s">
         <v>241</v>
       </c>
@@ -48840,7 +48840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1061" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="8" t="s">
         <v>238</v>
       </c>
@@ -48882,7 +48882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="8" t="s">
         <v>266</v>
       </c>
@@ -48924,7 +48924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" s="8" t="s">
         <v>615</v>
       </c>
@@ -48966,7 +48966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="8" t="s">
         <v>429</v>
       </c>
@@ -49008,7 +49008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="8" t="s">
         <v>132</v>
       </c>
@@ -49050,7 +49050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="8" t="s">
         <v>654</v>
       </c>
@@ -49092,7 +49092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" s="8" t="s">
         <v>899</v>
       </c>
@@ -49134,7 +49134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="8" t="s">
         <v>197</v>
       </c>
@@ -49176,7 +49176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" s="8" t="s">
         <v>173</v>
       </c>
@@ -49218,7 +49218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="8" t="s">
         <v>205</v>
       </c>
@@ -49260,7 +49260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1071" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" s="8" t="s">
         <v>191</v>
       </c>
@@ -49302,7 +49302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1072" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" s="8" t="s">
         <v>141</v>
       </c>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" s="8" t="s">
         <v>182</v>
       </c>
@@ -49386,7 +49386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1074" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" s="8" t="s">
         <v>894</v>
       </c>
@@ -49428,7 +49428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="8" t="s">
         <v>194</v>
       </c>
@@ -49470,7 +49470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1076" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" s="8" t="s">
         <v>491</v>
       </c>
@@ -49512,7 +49512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="8" t="s">
         <v>254</v>
       </c>
@@ -49554,7 +49554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="8" t="s">
         <v>37</v>
       </c>
@@ -49596,7 +49596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="8" t="s">
         <v>612</v>
       </c>
@@ -49638,7 +49638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="8" t="s">
         <v>272</v>
       </c>
@@ -49680,7 +49680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="8">
         <v>106690126</v>
       </c>
@@ -49722,7 +49722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1082" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" s="8" t="s">
         <v>64</v>
       </c>
@@ -49764,7 +49764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1083" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" s="8" t="s">
         <v>71</v>
       </c>
@@ -49806,7 +49806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1084" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="8" t="s">
         <v>103</v>
       </c>
@@ -49848,7 +49848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1085" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="8" t="s">
         <v>303</v>
       </c>
@@ -49890,7 +49890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1086" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" s="8" t="s">
         <v>126</v>
       </c>
@@ -49932,7 +49932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="8" t="s">
         <v>17</v>
       </c>
@@ -49974,7 +49974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="8" t="s">
         <v>88</v>
       </c>
@@ -50016,7 +50016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1089" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" s="8" t="s">
         <v>79</v>
       </c>
@@ -50058,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1090" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" s="8" t="s">
         <v>91</v>
       </c>
@@ -50100,7 +50100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1091" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="8" t="s">
         <v>350</v>
       </c>
@@ -50142,7 +50142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1092" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" s="8" t="s">
         <v>84</v>
       </c>
@@ -50184,7 +50184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1093" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" s="8" t="s">
         <v>123</v>
       </c>
@@ -50226,7 +50226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1094" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" s="8" t="s">
         <v>347</v>
       </c>
@@ -50268,7 +50268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1095" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" s="8" t="s">
         <v>60</v>
       </c>
@@ -50310,7 +50310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1096" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="8" t="s">
         <v>46</v>
       </c>
@@ -50352,7 +50352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1097" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" s="9">
         <v>186202405901</v>
       </c>
@@ -50394,7 +50394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" s="8" t="s">
         <v>97</v>
       </c>
@@ -50436,7 +50436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1099" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="8" t="s">
         <v>366</v>
       </c>
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" s="8" t="s">
         <v>113</v>
       </c>
@@ -50562,7 +50562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102" s="8" t="s">
         <v>67</v>
       </c>
@@ -50604,7 +50604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103" s="8" t="s">
         <v>165</v>
       </c>
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="8" t="s">
         <v>34</v>
       </c>
@@ -50688,7 +50688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="8" t="s">
         <v>159</v>
       </c>
@@ -50730,7 +50730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106" s="8" t="s">
         <v>150</v>
       </c>
@@ -50772,7 +50772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107" s="8" t="s">
         <v>43</v>
       </c>
@@ -50814,7 +50814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="8" t="s">
         <v>132</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="8" t="s">
         <v>401</v>
       </c>
@@ -50898,7 +50898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1110" s="8" t="s">
         <v>153</v>
       </c>
@@ -50940,7 +50940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="8" t="s">
         <v>106</v>
       </c>
@@ -50982,7 +50982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1112" s="8" t="s">
         <v>287</v>
       </c>
@@ -51024,7 +51024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="8" t="s">
         <v>290</v>
       </c>
@@ -51066,7 +51066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1114" s="8" t="s">
         <v>135</v>
       </c>
@@ -51108,7 +51108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" s="8" t="s">
         <v>129</v>
       </c>
@@ -51150,7 +51150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1116" s="8" t="s">
         <v>241</v>
       </c>
@@ -51192,7 +51192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1117" s="8" t="s">
         <v>404</v>
       </c>
@@ -51234,7 +51234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="8" t="s">
         <v>23</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1119" s="8" t="s">
         <v>235</v>
       </c>
@@ -51318,7 +51318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="8" t="s">
         <v>13</v>
       </c>
@@ -51360,7 +51360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="8" t="s">
         <v>220</v>
       </c>
@@ -51402,7 +51402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="8" t="s">
         <v>214</v>
       </c>
@@ -51444,7 +51444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1123" s="8" t="s">
         <v>223</v>
       </c>
@@ -51486,7 +51486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1124" s="8" t="s">
         <v>238</v>
       </c>
@@ -51528,7 +51528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="8" t="s">
         <v>229</v>
       </c>
@@ -51570,7 +51570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="8" t="s">
         <v>737</v>
       </c>
@@ -51612,7 +51612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="8" t="s">
         <v>263</v>
       </c>
@@ -51654,7 +51654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="8" t="s">
         <v>266</v>
       </c>
@@ -51696,7 +51696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1129" s="8" t="s">
         <v>429</v>
       </c>
@@ -51738,7 +51738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="10">
         <v>987654321</v>
       </c>
@@ -51778,7 +51778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1131" s="10">
         <v>118100111</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="10">
         <v>118100111</v>
       </c>
@@ -51862,7 +51862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="10">
         <v>118100111</v>
       </c>
@@ -51904,7 +51904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="10">
         <v>703070227</v>
       </c>
@@ -51946,7 +51946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="10">
         <v>703070227</v>
       </c>
@@ -51988,7 +51988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1136" s="10">
         <v>703070227</v>
       </c>
@@ -52030,7 +52030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1137" s="10">
         <v>703070227</v>
       </c>
@@ -52072,7 +52072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="10">
         <v>703070227</v>
       </c>
@@ -52114,7 +52114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="10">
         <v>107250019</v>
       </c>
@@ -52156,7 +52156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1140" s="10">
         <v>107250019</v>
       </c>
@@ -52198,7 +52198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1141" s="8" t="s">
         <v>718</v>
       </c>
@@ -52240,7 +52240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="10">
         <v>207040286</v>
       </c>
@@ -52282,7 +52282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="8">
         <v>108920509</v>
       </c>
@@ -52444,7 +52444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="10">
         <v>118100111</v>
       </c>
@@ -52512,6 +52512,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1147" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Escoto Marlon"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters>
         <filter val="Almuerzo Ejecutivo Aseavna"/>

--- a/app/data/Órdenes del punto de venta (pos.order).xlsx
+++ b/app/data/Órdenes del punto de venta (pos.order).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varga\OneDrive\Documentos\GitHub\sales_analysis_app\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D756F0-1C47-4F2F-A91D-DB264270655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF5032-0563-489D-8FC4-6A7C9EBE0835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4960,8 +4960,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K426" sqref="K426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>200</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>200</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>200</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>200</v>
       </c>
@@ -52517,11 +52517,6 @@
         <filter val="Escoto Marlon"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Almuerzo Ejecutivo Aseavna"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="147" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
